--- a/TEMOA_Europe_Results/1_Results_bau/_6_Heat.xlsx
+++ b/TEMOA_Europe_Results/1_Results_bau/_6_Heat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>tech</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>ELC_CHP_GEO_EXS</t>
-  </si>
-  <si>
-    <t>ELC_CHP_NGA_NEW</t>
   </si>
   <si>
     <t>ELC_CHP_BIO_NEW</t>
@@ -516,7 +513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>58.03027737499998</v>
@@ -574,7 +571,7 @@
         <v>44.5913048</v>
       </c>
       <c r="F2">
-        <v>33.4434786</v>
+        <v>33.44347860000001</v>
       </c>
       <c r="G2">
         <v>22.2956524</v>
@@ -603,16 +600,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>652.1899942468615</v>
+        <v>652.1899942468616</v>
       </c>
       <c r="E3">
         <v>335.947716</v>
       </c>
       <c r="F3">
-        <v>348.5502409999991</v>
+        <v>343.3573915998162</v>
       </c>
       <c r="G3">
         <v>167.973858</v>
@@ -641,19 +638,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>198.9766809850324</v>
+        <v>222.5298737957116</v>
       </c>
       <c r="E4">
-        <v>140.55525216</v>
+        <v>147.8917789456056</v>
       </c>
       <c r="F4">
         <v>105.41643912</v>
       </c>
       <c r="G4">
-        <v>70.27762607999999</v>
+        <v>70.27762608</v>
       </c>
       <c r="H4">
         <v>35.13881304</v>
@@ -679,16 +676,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>99.05875991665857</v>
+        <v>83.72890856799722</v>
       </c>
       <c r="E5">
-        <v>49.31653750399998</v>
+        <v>49.31653750399993</v>
       </c>
       <c r="F5">
-        <v>58.04789178563896</v>
+        <v>65.42555773914694</v>
       </c>
       <c r="G5">
         <v>24.658268752</v>
@@ -717,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>6.921566999999998</v>
       </c>
       <c r="E6">
-        <v>5.537253599999999</v>
+        <v>5.5372536</v>
       </c>
       <c r="F6">
         <v>4.152940199999999</v>
       </c>
       <c r="G6">
-        <v>2.768626799999999</v>
+        <v>2.7686268</v>
       </c>
       <c r="H6">
         <v>1.3843134</v>
@@ -755,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -776,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.284053997870994E-07</v>
+        <v>20.94562894594206</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>236.903647903344</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>236.903647903344</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -793,10 +790,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>23.1874575</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -814,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.41510452758052</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>239.325399873689</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>239.325399873689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -831,16 +828,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>23.18745749999999</v>
+        <v>127.52628525</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>139.3947755998172</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>115.6701</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -869,16 +866,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>127.52628525</v>
+        <v>47.7301356</v>
       </c>
       <c r="E10">
-        <v>144.587625</v>
+        <v>29.3307636</v>
       </c>
       <c r="F10">
-        <v>115.6701</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -907,25 +904,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>52.47529784179911</v>
+        <v>59.06335439999999</v>
       </c>
       <c r="E11">
-        <v>29.33076359999999</v>
+        <v>49.21946199999999</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>39.3755696</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>29.53167719999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>19.6877848</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9.843892399999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -945,25 +942,25 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>59.06335439999999</v>
+        <v>2.50005</v>
       </c>
       <c r="E12">
-        <v>49.21946199999999</v>
+        <v>2.083375</v>
       </c>
       <c r="F12">
-        <v>39.3755696</v>
+        <v>2.533384</v>
       </c>
       <c r="G12">
-        <v>29.53167719999999</v>
+        <v>1.39652793</v>
       </c>
       <c r="H12">
-        <v>19.6877848</v>
+        <v>1.266692</v>
       </c>
       <c r="I12">
-        <v>9.843892399999998</v>
+        <v>0.6333459999999999</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -983,28 +980,28 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>2.50005</v>
+        <v>0.05655383249999999</v>
       </c>
       <c r="E13">
-        <v>2.083375</v>
+        <v>0.04712819375</v>
       </c>
       <c r="F13">
-        <v>1.6667</v>
+        <v>0.037702555</v>
       </c>
       <c r="G13">
-        <v>1.250025</v>
+        <v>0.0188512775</v>
       </c>
       <c r="H13">
-        <v>1.266692</v>
+        <v>0.0188512775</v>
       </c>
       <c r="I13">
-        <v>0.633346</v>
+        <v>0.004583333333333335</v>
       </c>
       <c r="J13">
-        <v>-2.284052786905022E-07</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1021,25 +1018,25 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>0.05655383249999999</v>
+        <v>92.38326512500004</v>
       </c>
       <c r="E14">
-        <v>0.04712819375000001</v>
+        <v>47.89469520000004</v>
       </c>
       <c r="F14">
-        <v>0.037702555</v>
+        <v>41.81252139999999</v>
       </c>
       <c r="G14">
-        <v>0.0188512775</v>
+        <v>67.90169986687502</v>
       </c>
       <c r="H14">
-        <v>0.0188512775</v>
+        <v>39.63242073862501</v>
       </c>
       <c r="I14">
-        <v>0.004583333333333336</v>
+        <v>9.777736082842944</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1059,25 +1056,25 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>92.38326512500004</v>
+        <v>288.1587205031386</v>
       </c>
       <c r="E15">
-        <v>47.89469520000001</v>
+        <v>351.2865084001827</v>
       </c>
       <c r="F15">
-        <v>41.81252140000001</v>
+        <v>351.2865084001826</v>
       </c>
       <c r="G15">
-        <v>67.90169986687499</v>
+        <v>301.1707346924853</v>
       </c>
       <c r="H15">
-        <v>39.63242073862502</v>
+        <v>351.2865084001826</v>
       </c>
       <c r="I15">
-        <v>15.09623304343792</v>
+        <v>278.4272315914864</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1097,25 +1094,25 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>288.1587205031386</v>
+        <v>503.9719906042885</v>
       </c>
       <c r="E16">
-        <v>346.0936590000001</v>
+        <v>439.2544574543946</v>
       </c>
       <c r="F16">
-        <v>346.0936590000001</v>
+        <v>362.7945608800009</v>
       </c>
       <c r="G16">
-        <v>311.6540914832175</v>
+        <v>503.9719906042885</v>
       </c>
       <c r="H16">
-        <v>346.0936590000001</v>
+        <v>503.9719906042885</v>
       </c>
       <c r="I16">
-        <v>273.2195420052041</v>
+        <v>498.4086978541478</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1135,34 +1132,34 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>522.7800211731685</v>
+        <v>383.7367370320026</v>
       </c>
       <c r="E17">
-        <v>446.59098424</v>
+        <v>590.4160004959999</v>
       </c>
       <c r="F17">
-        <v>362.7945608800002</v>
+        <v>698.6298726608535</v>
       </c>
       <c r="G17">
-        <v>522.7800211731685</v>
+        <v>698.6298726608533</v>
       </c>
       <c r="H17">
-        <v>522.7800211731685</v>
+        <v>698.6298726608533</v>
       </c>
       <c r="I17">
-        <v>516.3910018395002</v>
+        <v>698.6298726608534</v>
       </c>
       <c r="J17">
-        <v>6.715184124489149</v>
+        <v>314.8931356288506</v>
       </c>
       <c r="K17">
-        <v>6.715184124489149</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.715184124489149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1173,34 +1170,34 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>368.4068856833413</v>
+        <v>21.738383</v>
       </c>
       <c r="E18">
-        <v>590.416000496</v>
+        <v>33.8083714</v>
       </c>
       <c r="F18">
-        <v>706.0075386143614</v>
+        <v>42.4696758</v>
       </c>
       <c r="G18">
-        <v>706.0075386143615</v>
+        <v>42.4696758</v>
       </c>
       <c r="H18">
-        <v>706.0075386143612</v>
+        <v>158.5499805155698</v>
       </c>
       <c r="I18">
-        <v>706.0075386143614</v>
+        <v>166.3594628140831</v>
       </c>
       <c r="J18">
-        <v>337.6006529310199</v>
+        <v>276.3140752898632</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>361.9157082491488</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>361.9157082491488</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1211,71 +1208,33 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>21.738383</v>
+        <v>0.1494461674999999</v>
       </c>
       <c r="E19">
-        <v>33.8083714</v>
+        <v>1.01487180625</v>
       </c>
       <c r="F19">
-        <v>43.3363598</v>
+        <v>2.806297444999999</v>
       </c>
       <c r="G19">
-        <v>43.33635980000001</v>
+        <v>2.806297444999999</v>
       </c>
       <c r="H19">
-        <v>149.4487052565289</v>
+        <v>2.656851277499999</v>
       </c>
       <c r="I19">
-        <v>166.7841278549473</v>
+        <v>1.791425638749999</v>
       </c>
       <c r="J19">
-        <v>264.1739825100398</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>362.0274194918269</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>362.0274194918269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20">
-        <v>0.1494461675</v>
-      </c>
-      <c r="E20">
-        <v>1.01487180625</v>
-      </c>
-      <c r="F20">
-        <v>2.806297444999998</v>
-      </c>
-      <c r="G20">
-        <v>2.806297444999999</v>
-      </c>
-      <c r="H20">
-        <v>2.656851277499999</v>
-      </c>
-      <c r="I20">
-        <v>1.791425638749999</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
         <v>0</v>
       </c>
     </row>
